--- a/data/trans_camb/P54_A_7_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P54_A_7_R-Edad-trans_camb.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,14</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,14</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,66</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,3</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,83</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,66</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,89; -1,21</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,89; -1,21</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,61; -5,24</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,75; -2,26</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,69; -3,72</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,75; -2,1</t>
         </is>
       </c>
     </row>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-72,71%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-79,96%</t>
         </is>
       </c>
     </row>
@@ -730,17 +730,17 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>-92,36; -24,48</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-94,26; -44,34</t>
         </is>
       </c>
     </row>
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,33</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,39</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,08</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,84</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,74</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,66</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,88; -1,97</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,31; 0,63</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,07; -1,32</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,0; 2,16</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,99; -2,17</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,07; 0,63</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-55,09%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-27,33%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-44,34%</t>
         </is>
       </c>
     </row>
@@ -876,27 +876,27 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
+          <t>-91,12; 66,51</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E11" s="2" t="inlineStr">
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>-83,36; 165,37</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-77,59; 35,21</t>
         </is>
       </c>
     </row>
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,92</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,98</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,81</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,96</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,88</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,47</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,86; -2,07</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,89; -0,86</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,05; -5,05</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,63; -3,13</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,85; -4,1</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,63; -2,51</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-75,91%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-76,31%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-76,06%</t>
         </is>
       </c>
     </row>
@@ -1032,27 +1032,27 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
+          <t>-94,54; -12,29</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E15" s="2" t="inlineStr">
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>-91,26; -47,94</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-89,01; -49,56</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,89</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,6</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,02</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,22</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,99</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,45</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,06; -3,67</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,17; -2,03</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,57; -5,48</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,74; -3,32</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,36; -5,24</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,78; -3,35</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-78,18%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-95,95%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-74,49%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-97,59%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-76,03%</t>
         </is>
       </c>
     </row>
@@ -1188,27 +1188,27 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-94,59; -40,95</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -73,93</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-89,59; -46,9</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -86,65</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-87,64; -52,59</t>
         </is>
       </c>
     </row>
@@ -1225,32 +1225,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,53</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,31</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,58</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,0</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,05</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,14</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,73; -3,99</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,92; -2,19</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,38; -4,17</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,47; -0,9</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,18; -4,71</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,5; -2,56</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1301,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-81,32%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-65,99%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-73,0%</t>
         </is>
       </c>
     </row>
@@ -1344,27 +1344,27 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
+          <t>-100,0; -35,66</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E23" s="2" t="inlineStr">
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-89,58; -11,55</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-89,64; -44,88</t>
         </is>
       </c>
     </row>
@@ -1381,32 +1381,32 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,25</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,24</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,37</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,91</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,57</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,55</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,99; -4,94</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,48; 0,34</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,97; -1,02</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,36; -0,29</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,38; -3,45</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,6; -0,86</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1457,32 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-51,39%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-80,22%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-69,25%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-92,21%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-58,73%</t>
         </is>
       </c>
     </row>
@@ -1500,27 +1500,27 @@
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-83,04; 10,06</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -11,37</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-93,99; 12,36</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -56,3</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-81,43; -12,48</t>
         </is>
       </c>
     </row>
@@ -1537,32 +1537,32 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,25</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,71</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,46</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,66</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,86</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,19</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,46; -4,14</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,06; -2,35</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,06; -5,22</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,28; -3,17</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,94; -5,03</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,25; -3,2</t>
         </is>
       </c>
     </row>
@@ -1613,32 +1613,32 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-70,72%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-96,59%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-69,64%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-98,06%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-70,06%</t>
         </is>
       </c>
     </row>
@@ -1656,27 +1656,34 @@
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-82,13; -51,12</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-99,05; -89,47</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-79,96; -55,09</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-99,46; -94,37</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-78,56; -59,53</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
